--- a/Test.xlsx
+++ b/Test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>Deployment_Date</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Current_OU</t>
+  </si>
+  <si>
+    <t>Id number</t>
+  </si>
+  <si>
+    <t>employee Number</t>
   </si>
   <si>
     <t>SteveH</t>
@@ -497,6 +503,7 @@
     <col customWidth="1" min="10" max="10" width="13.63"/>
     <col customWidth="1" min="11" max="11" width="12.25"/>
     <col customWidth="1" min="12" max="12" width="14.63"/>
+    <col customWidth="1" min="16" max="16" width="14.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,49 +549,61 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>45850.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="3">
@@ -592,43 +611,49 @@
         <v>45851.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="4">
@@ -636,43 +661,49 @@
         <v>45852.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="5">
@@ -680,43 +711,49 @@
         <v>45853.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="6">
@@ -724,43 +761,49 @@
         <v>45854.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="7">
@@ -768,43 +811,49 @@
         <v>45855.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="8">
@@ -812,43 +861,49 @@
         <v>45856.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="9">
@@ -856,43 +911,49 @@
         <v>45857.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="10">
@@ -900,43 +961,49 @@
         <v>45858.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="11">
@@ -944,43 +1011,49 @@
         <v>45859.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.123</v>
       </c>
     </row>
     <row r="12">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
   <si>
     <t>Deployment_Date</t>
   </si>
@@ -238,62 +257,910 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -483,30 +1350,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="13.38"/>
-    <col customWidth="1" min="4" max="4" width="13.88"/>
-    <col customWidth="1" min="5" max="5" width="13.5"/>
-    <col customWidth="1" min="10" max="10" width="13.63"/>
-    <col customWidth="1" min="11" max="11" width="12.25"/>
-    <col customWidth="1" min="12" max="12" width="14.63"/>
-    <col customWidth="1" min="16" max="16" width="14.63"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.3809523809524" customWidth="1"/>
+    <col min="4" max="4" width="13.8761904761905" customWidth="1"/>
+    <col min="5" max="5" width="13.5047619047619" customWidth="1"/>
+    <col min="10" max="10" width="13.6285714285714" customWidth="1"/>
+    <col min="11" max="11" width="12.247619047619" customWidth="1"/>
+    <col min="12" max="12" width="14.6285714285714" customWidth="1"/>
+    <col min="16" max="16" width="14.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,9 +1427,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2">
-        <v>45850.0</v>
+        <v>45850</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -600,15 +1471,15 @@
         <v>26</v>
       </c>
       <c r="O2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P2" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="2">
-        <v>45851.0</v>
+        <v>45851</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -650,15 +1521,15 @@
         <v>32</v>
       </c>
       <c r="O3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="2">
-        <v>45852.0</v>
+        <v>45852</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -700,15 +1571,15 @@
         <v>32</v>
       </c>
       <c r="O4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P4" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="2">
-        <v>45853.0</v>
+        <v>45853</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
@@ -750,15 +1621,15 @@
         <v>32</v>
       </c>
       <c r="O5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="2">
-        <v>45854.0</v>
+        <v>45854</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
@@ -800,15 +1671,15 @@
         <v>32</v>
       </c>
       <c r="O6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:16">
       <c r="A7" s="2">
-        <v>45855.0</v>
+        <v>45855</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
@@ -850,15 +1721,15 @@
         <v>32</v>
       </c>
       <c r="O7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:16">
       <c r="A8" s="2">
-        <v>45856.0</v>
+        <v>45856</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>53</v>
@@ -900,15 +1771,15 @@
         <v>58</v>
       </c>
       <c r="O8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P8" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:16">
       <c r="A9" s="2">
-        <v>45857.0</v>
+        <v>45857</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>59</v>
@@ -950,15 +1821,15 @@
         <v>58</v>
       </c>
       <c r="O9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P9" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:16">
       <c r="A10" s="2">
-        <v>45858.0</v>
+        <v>45858</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>64</v>
@@ -1000,15 +1871,15 @@
         <v>58</v>
       </c>
       <c r="O10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P10" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:16">
       <c r="A11" s="2">
-        <v>45859.0</v>
+        <v>45859</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>69</v>
@@ -1050,2980 +1921,3434 @@
         <v>58</v>
       </c>
       <c r="O11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P11" s="1">
         <v>2.123</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:1">
       <c r="A12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:1">
       <c r="A14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:1">
       <c r="A18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="1:1">
       <c r="A21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:1">
       <c r="A24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:1">
       <c r="A26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:1">
       <c r="A27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="1:1">
       <c r="A28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="1:1">
       <c r="A29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="1:1">
       <c r="A32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:1">
       <c r="A33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="1:1">
       <c r="A37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" customHeight="1" spans="1:1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" customHeight="1" spans="1:1">
       <c r="A39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" customHeight="1" spans="1:1">
       <c r="A41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" customHeight="1" spans="1:1">
       <c r="A42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" customHeight="1" spans="1:1">
       <c r="A43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" customHeight="1" spans="1:1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" customHeight="1" spans="1:1">
       <c r="A45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" customHeight="1" spans="1:1">
       <c r="A46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" customHeight="1" spans="1:1">
       <c r="A47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" customHeight="1" spans="1:1">
       <c r="A48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" customHeight="1" spans="1:1">
       <c r="A49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" customHeight="1" spans="1:1">
       <c r="A50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" customHeight="1" spans="1:1">
       <c r="A51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" customHeight="1" spans="1:1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" customHeight="1" spans="1:1">
       <c r="A53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" customHeight="1" spans="1:1">
       <c r="A54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" customHeight="1" spans="1:1">
       <c r="A55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" customHeight="1" spans="1:1">
       <c r="A56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" customHeight="1" spans="1:1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" customHeight="1" spans="1:1">
       <c r="A59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" customHeight="1" spans="1:1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" customHeight="1" spans="1:1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" customHeight="1" spans="1:1">
       <c r="A63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" customHeight="1" spans="1:1">
       <c r="A64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" customHeight="1" spans="1:1">
       <c r="A65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="1:1">
       <c r="A66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" customHeight="1" spans="1:1">
       <c r="A67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" customHeight="1" spans="1:1">
       <c r="A68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" customHeight="1" spans="1:1">
       <c r="A69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" customHeight="1" spans="1:1">
       <c r="A70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" customHeight="1" spans="1:1">
       <c r="A71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" customHeight="1" spans="1:1">
       <c r="A72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" customHeight="1" spans="1:1">
       <c r="A73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" customHeight="1" spans="1:1">
       <c r="A74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" customHeight="1" spans="1:1">
       <c r="A75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" customHeight="1" spans="1:1">
       <c r="A76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" customHeight="1" spans="1:1">
       <c r="A77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" customHeight="1" spans="1:1">
       <c r="A78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" customHeight="1" spans="1:1">
       <c r="A80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" customHeight="1" spans="1:1">
       <c r="A81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" customHeight="1" spans="1:1">
       <c r="A82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" customHeight="1" spans="1:1">
       <c r="A83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" customHeight="1" spans="1:1">
       <c r="A85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" customHeight="1" spans="1:1">
       <c r="A87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" customHeight="1" spans="1:1">
       <c r="A88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="1:1">
       <c r="A89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" customHeight="1" spans="1:1">
       <c r="A90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" customHeight="1" spans="1:1">
       <c r="A91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" customHeight="1" spans="1:1">
       <c r="A92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" customHeight="1" spans="1:1">
       <c r="A93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" customHeight="1" spans="1:1">
       <c r="A94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="1:1">
       <c r="A95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" customHeight="1" spans="1:1">
       <c r="A96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" customHeight="1" spans="1:1">
       <c r="A97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" customHeight="1" spans="1:1">
       <c r="A98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" customHeight="1" spans="1:1">
       <c r="A99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" customHeight="1" spans="1:1">
       <c r="A100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="1:1">
       <c r="A101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="1:1">
       <c r="A102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" customHeight="1" spans="1:1">
       <c r="A103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" customHeight="1" spans="1:1">
       <c r="A104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" customHeight="1" spans="1:1">
       <c r="A105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" customHeight="1" spans="1:1">
       <c r="A106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" customHeight="1" spans="1:1">
       <c r="A107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" customHeight="1" spans="1:1">
       <c r="A108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" customHeight="1" spans="1:1">
       <c r="A109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" customHeight="1" spans="1:1">
       <c r="A110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" customHeight="1" spans="1:1">
       <c r="A112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="1:1">
       <c r="A113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" customHeight="1" spans="1:1">
       <c r="A114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="1:1">
       <c r="A115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" customHeight="1" spans="1:1">
       <c r="A116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" customHeight="1" spans="1:1">
       <c r="A117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="1:1">
       <c r="A118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" customHeight="1" spans="1:1">
       <c r="A119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" customHeight="1" spans="1:1">
       <c r="A120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" customHeight="1" spans="1:1">
       <c r="A121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" customHeight="1" spans="1:1">
       <c r="A122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" customHeight="1" spans="1:1">
       <c r="A123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" customHeight="1" spans="1:1">
       <c r="A124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="1:1">
       <c r="A126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" customHeight="1" spans="1:1">
       <c r="A127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" customHeight="1" spans="1:1">
       <c r="A129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" customHeight="1" spans="1:1">
       <c r="A130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" customHeight="1" spans="1:1">
       <c r="A131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" customHeight="1" spans="1:1">
       <c r="A132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" customHeight="1" spans="1:1">
       <c r="A133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" customHeight="1" spans="1:1">
       <c r="A134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" customHeight="1" spans="1:1">
       <c r="A135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" customHeight="1" spans="1:1">
       <c r="A136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" customHeight="1" spans="1:1">
       <c r="A137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" customHeight="1" spans="1:1">
       <c r="A138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" customHeight="1" spans="1:1">
       <c r="A139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" customHeight="1" spans="1:1">
       <c r="A140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" customHeight="1" spans="1:1">
       <c r="A142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" customHeight="1" spans="1:1">
       <c r="A143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" customHeight="1" spans="1:1">
       <c r="A144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" customHeight="1" spans="1:1">
       <c r="A145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" customHeight="1" spans="1:1">
       <c r="A146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" customHeight="1" spans="1:1">
       <c r="A147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" customHeight="1" spans="1:1">
       <c r="A148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" customHeight="1" spans="1:1">
       <c r="A149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" customHeight="1" spans="1:1">
       <c r="A150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" customHeight="1" spans="1:1">
       <c r="A151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" customHeight="1" spans="1:1">
       <c r="A152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" customHeight="1" spans="1:1">
       <c r="A153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" customHeight="1" spans="1:1">
       <c r="A154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" customHeight="1" spans="1:1">
       <c r="A156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" customHeight="1" spans="1:1">
       <c r="A157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" customHeight="1" spans="1:1">
       <c r="A158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" customHeight="1" spans="1:1">
       <c r="A159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" customHeight="1" spans="1:1">
       <c r="A161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" customHeight="1" spans="1:1">
       <c r="A162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" customHeight="1" spans="1:1">
       <c r="A163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" customHeight="1" spans="1:1">
       <c r="A164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" customHeight="1" spans="1:1">
       <c r="A166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" customHeight="1" spans="1:1">
       <c r="A167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" customHeight="1" spans="1:1">
       <c r="A168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" customHeight="1" spans="1:1">
       <c r="A169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" customHeight="1" spans="1:1">
       <c r="A171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" customHeight="1" spans="1:1">
       <c r="A172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" customHeight="1" spans="1:1">
       <c r="A173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" customHeight="1" spans="1:1">
       <c r="A175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" customHeight="1" spans="1:1">
       <c r="A176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" customHeight="1" spans="1:1">
       <c r="A177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" customHeight="1" spans="1:1">
       <c r="A178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" customHeight="1" spans="1:1">
       <c r="A179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" customHeight="1" spans="1:1">
       <c r="A180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" customHeight="1" spans="1:1">
       <c r="A181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" customHeight="1" spans="1:1">
       <c r="A182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" customHeight="1" spans="1:1">
       <c r="A183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" customHeight="1" spans="1:1">
       <c r="A184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" customHeight="1" spans="1:1">
       <c r="A185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" customHeight="1" spans="1:1">
       <c r="A186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" customHeight="1" spans="1:1">
       <c r="A187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" customHeight="1" spans="1:1">
       <c r="A188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" customHeight="1" spans="1:1">
       <c r="A189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" customHeight="1" spans="1:1">
       <c r="A190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" customHeight="1" spans="1:1">
       <c r="A191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" customHeight="1" spans="1:1">
       <c r="A192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" customHeight="1" spans="1:1">
       <c r="A193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" customHeight="1" spans="1:1">
       <c r="A194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" customHeight="1" spans="1:1">
       <c r="A195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" customHeight="1" spans="1:1">
       <c r="A196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" customHeight="1" spans="1:1">
       <c r="A197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" customHeight="1" spans="1:1">
       <c r="A198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" customHeight="1" spans="1:1">
       <c r="A199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" customHeight="1" spans="1:1">
       <c r="A200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" customHeight="1" spans="1:1">
       <c r="A201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" customHeight="1" spans="1:1">
       <c r="A202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" customHeight="1" spans="1:1">
       <c r="A203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" customHeight="1" spans="1:1">
       <c r="A204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" customHeight="1" spans="1:1">
       <c r="A205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" customHeight="1" spans="1:1">
       <c r="A206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" customHeight="1" spans="1:1">
       <c r="A207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" customHeight="1" spans="1:1">
       <c r="A208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" customHeight="1" spans="1:1">
       <c r="A209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" customHeight="1" spans="1:1">
       <c r="A210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" customHeight="1" spans="1:1">
       <c r="A211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" customHeight="1" spans="1:1">
       <c r="A212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" customHeight="1" spans="1:1">
       <c r="A213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" customHeight="1" spans="1:1">
       <c r="A214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" customHeight="1" spans="1:1">
       <c r="A215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" customHeight="1" spans="1:1">
       <c r="A216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" customHeight="1" spans="1:1">
       <c r="A217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" customHeight="1" spans="1:1">
       <c r="A218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" customHeight="1" spans="1:1">
       <c r="A219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" customHeight="1" spans="1:1">
       <c r="A220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" customHeight="1" spans="1:1">
       <c r="A221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" customHeight="1" spans="1:1">
       <c r="A222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" customHeight="1" spans="1:1">
       <c r="A223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" customHeight="1" spans="1:1">
       <c r="A224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" customHeight="1" spans="1:1">
       <c r="A225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" customHeight="1" spans="1:1">
       <c r="A226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" customHeight="1" spans="1:1">
       <c r="A227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" customHeight="1" spans="1:1">
       <c r="A228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" customHeight="1" spans="1:1">
       <c r="A229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" customHeight="1" spans="1:1">
       <c r="A230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" customHeight="1" spans="1:1">
       <c r="A231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" customHeight="1" spans="1:1">
       <c r="A232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" customHeight="1" spans="1:1">
       <c r="A233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" customHeight="1" spans="1:1">
       <c r="A234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" customHeight="1" spans="1:1">
       <c r="A235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" customHeight="1" spans="1:1">
       <c r="A236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" customHeight="1" spans="1:1">
       <c r="A237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" customHeight="1" spans="1:1">
       <c r="A238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" customHeight="1" spans="1:1">
       <c r="A239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" customHeight="1" spans="1:1">
       <c r="A240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" customHeight="1" spans="1:1">
       <c r="A241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" customHeight="1" spans="1:1">
       <c r="A242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" customHeight="1" spans="1:1">
       <c r="A243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" customHeight="1" spans="1:1">
       <c r="A244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" customHeight="1" spans="1:1">
       <c r="A245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" customHeight="1" spans="1:1">
       <c r="A246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" customHeight="1" spans="1:1">
       <c r="A247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" customHeight="1" spans="1:1">
       <c r="A248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" customHeight="1" spans="1:1">
       <c r="A249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" customHeight="1" spans="1:1">
       <c r="A250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" customHeight="1" spans="1:1">
       <c r="A251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" customHeight="1" spans="1:1">
       <c r="A252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" customHeight="1" spans="1:1">
       <c r="A253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" customHeight="1" spans="1:1">
       <c r="A254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" customHeight="1" spans="1:1">
       <c r="A255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" customHeight="1" spans="1:1">
       <c r="A256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" customHeight="1" spans="1:1">
       <c r="A257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" customHeight="1" spans="1:1">
       <c r="A258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" customHeight="1" spans="1:1">
       <c r="A259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" customHeight="1" spans="1:1">
       <c r="A260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" customHeight="1" spans="1:1">
       <c r="A261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" customHeight="1" spans="1:1">
       <c r="A262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" customHeight="1" spans="1:1">
       <c r="A263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" customHeight="1" spans="1:1">
       <c r="A264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" customHeight="1" spans="1:1">
       <c r="A265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" customHeight="1" spans="1:1">
       <c r="A266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" customHeight="1" spans="1:1">
       <c r="A267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" customHeight="1" spans="1:1">
       <c r="A268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" customHeight="1" spans="1:1">
       <c r="A269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" customHeight="1" spans="1:1">
       <c r="A270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" customHeight="1" spans="1:1">
       <c r="A271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" customHeight="1" spans="1:1">
       <c r="A272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" customHeight="1" spans="1:1">
       <c r="A273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" customHeight="1" spans="1:1">
       <c r="A274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" customHeight="1" spans="1:1">
       <c r="A275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" customHeight="1" spans="1:1">
       <c r="A276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" customHeight="1" spans="1:1">
       <c r="A277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" customHeight="1" spans="1:1">
       <c r="A278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" customHeight="1" spans="1:1">
       <c r="A279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" customHeight="1" spans="1:1">
       <c r="A280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" customHeight="1" spans="1:1">
       <c r="A281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" customHeight="1" spans="1:1">
       <c r="A282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" customHeight="1" spans="1:1">
       <c r="A283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" customHeight="1" spans="1:1">
       <c r="A284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" customHeight="1" spans="1:1">
       <c r="A285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" customHeight="1" spans="1:1">
       <c r="A286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" customHeight="1" spans="1:1">
       <c r="A287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" customHeight="1" spans="1:1">
       <c r="A288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" customHeight="1" spans="1:1">
       <c r="A289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" customHeight="1" spans="1:1">
       <c r="A290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" customHeight="1" spans="1:1">
       <c r="A291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" customHeight="1" spans="1:1">
       <c r="A292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" customHeight="1" spans="1:1">
       <c r="A293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" customHeight="1" spans="1:1">
       <c r="A294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" customHeight="1" spans="1:1">
       <c r="A295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" customHeight="1" spans="1:1">
       <c r="A296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" customHeight="1" spans="1:1">
       <c r="A297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" customHeight="1" spans="1:1">
       <c r="A298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" customHeight="1" spans="1:1">
       <c r="A299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" customHeight="1" spans="1:1">
       <c r="A300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" customHeight="1" spans="1:1">
       <c r="A301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" customHeight="1" spans="1:1">
       <c r="A302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" customHeight="1" spans="1:1">
       <c r="A303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" customHeight="1" spans="1:1">
       <c r="A304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" customHeight="1" spans="1:1">
       <c r="A305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" customHeight="1" spans="1:1">
       <c r="A306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" customHeight="1" spans="1:1">
       <c r="A307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" customHeight="1" spans="1:1">
       <c r="A308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" customHeight="1" spans="1:1">
       <c r="A309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" customHeight="1" spans="1:1">
       <c r="A310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" customHeight="1" spans="1:1">
       <c r="A311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" customHeight="1" spans="1:1">
       <c r="A312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" customHeight="1" spans="1:1">
       <c r="A313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" customHeight="1" spans="1:1">
       <c r="A314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" customHeight="1" spans="1:1">
       <c r="A315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" customHeight="1" spans="1:1">
       <c r="A316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" customHeight="1" spans="1:1">
       <c r="A317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" customHeight="1" spans="1:1">
       <c r="A318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" customHeight="1" spans="1:1">
       <c r="A319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" customHeight="1" spans="1:1">
       <c r="A320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" customHeight="1" spans="1:1">
       <c r="A321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" customHeight="1" spans="1:1">
       <c r="A322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" customHeight="1" spans="1:1">
       <c r="A323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" customHeight="1" spans="1:1">
       <c r="A324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" customHeight="1" spans="1:1">
       <c r="A325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" customHeight="1" spans="1:1">
       <c r="A326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" customHeight="1" spans="1:1">
       <c r="A327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" customHeight="1" spans="1:1">
       <c r="A328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" customHeight="1" spans="1:1">
       <c r="A329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" customHeight="1" spans="1:1">
       <c r="A330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" customHeight="1" spans="1:1">
       <c r="A331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" customHeight="1" spans="1:1">
       <c r="A332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" customHeight="1" spans="1:1">
       <c r="A333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" customHeight="1" spans="1:1">
       <c r="A334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" customHeight="1" spans="1:1">
       <c r="A335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" customHeight="1" spans="1:1">
       <c r="A336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" customHeight="1" spans="1:1">
       <c r="A337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" customHeight="1" spans="1:1">
       <c r="A338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" customHeight="1" spans="1:1">
       <c r="A339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" customHeight="1" spans="1:1">
       <c r="A340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" customHeight="1" spans="1:1">
       <c r="A341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" customHeight="1" spans="1:1">
       <c r="A342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" customHeight="1" spans="1:1">
       <c r="A343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" customHeight="1" spans="1:1">
       <c r="A344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" customHeight="1" spans="1:1">
       <c r="A345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" customHeight="1" spans="1:1">
       <c r="A346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" customHeight="1" spans="1:1">
       <c r="A347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" customHeight="1" spans="1:1">
       <c r="A348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" customHeight="1" spans="1:1">
       <c r="A349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" customHeight="1" spans="1:1">
       <c r="A350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" customHeight="1" spans="1:1">
       <c r="A351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" customHeight="1" spans="1:1">
       <c r="A352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" customHeight="1" spans="1:1">
       <c r="A353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" customHeight="1" spans="1:1">
       <c r="A354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" customHeight="1" spans="1:1">
       <c r="A355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" customHeight="1" spans="1:1">
       <c r="A356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" customHeight="1" spans="1:1">
       <c r="A357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" customHeight="1" spans="1:1">
       <c r="A358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" customHeight="1" spans="1:1">
       <c r="A359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" customHeight="1" spans="1:1">
       <c r="A360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" customHeight="1" spans="1:1">
       <c r="A361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" customHeight="1" spans="1:1">
       <c r="A362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" customHeight="1" spans="1:1">
       <c r="A363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" customHeight="1" spans="1:1">
       <c r="A364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" customHeight="1" spans="1:1">
       <c r="A365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" customHeight="1" spans="1:1">
       <c r="A366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" customHeight="1" spans="1:1">
       <c r="A367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" customHeight="1" spans="1:1">
       <c r="A368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" customHeight="1" spans="1:1">
       <c r="A369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" customHeight="1" spans="1:1">
       <c r="A370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" customHeight="1" spans="1:1">
       <c r="A371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" customHeight="1" spans="1:1">
       <c r="A372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" customHeight="1" spans="1:1">
       <c r="A373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" customHeight="1" spans="1:1">
       <c r="A374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" customHeight="1" spans="1:1">
       <c r="A375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" customHeight="1" spans="1:1">
       <c r="A376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" customHeight="1" spans="1:1">
       <c r="A377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" customHeight="1" spans="1:1">
       <c r="A378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" customHeight="1" spans="1:1">
       <c r="A379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" customHeight="1" spans="1:1">
       <c r="A380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" customHeight="1" spans="1:1">
       <c r="A381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" customHeight="1" spans="1:1">
       <c r="A382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" customHeight="1" spans="1:1">
       <c r="A383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" customHeight="1" spans="1:1">
       <c r="A384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" customHeight="1" spans="1:1">
       <c r="A385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" customHeight="1" spans="1:1">
       <c r="A386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" customHeight="1" spans="1:1">
       <c r="A387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" customHeight="1" spans="1:1">
       <c r="A388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" customHeight="1" spans="1:1">
       <c r="A389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" customHeight="1" spans="1:1">
       <c r="A390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" customHeight="1" spans="1:1">
       <c r="A391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" customHeight="1" spans="1:1">
       <c r="A392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" customHeight="1" spans="1:1">
       <c r="A393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" customHeight="1" spans="1:1">
       <c r="A394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" customHeight="1" spans="1:1">
       <c r="A395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" customHeight="1" spans="1:1">
       <c r="A396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" customHeight="1" spans="1:1">
       <c r="A397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" customHeight="1" spans="1:1">
       <c r="A398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" customHeight="1" spans="1:1">
       <c r="A399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" customHeight="1" spans="1:1">
       <c r="A400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" customHeight="1" spans="1:1">
       <c r="A401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" customHeight="1" spans="1:1">
       <c r="A402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" customHeight="1" spans="1:1">
       <c r="A403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" customHeight="1" spans="1:1">
       <c r="A404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" customHeight="1" spans="1:1">
       <c r="A405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" customHeight="1" spans="1:1">
       <c r="A406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" customHeight="1" spans="1:1">
       <c r="A407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" customHeight="1" spans="1:1">
       <c r="A408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" customHeight="1" spans="1:1">
       <c r="A409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" customHeight="1" spans="1:1">
       <c r="A410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" customHeight="1" spans="1:1">
       <c r="A411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" customHeight="1" spans="1:1">
       <c r="A412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" customHeight="1" spans="1:1">
       <c r="A413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" customHeight="1" spans="1:1">
       <c r="A414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" customHeight="1" spans="1:1">
       <c r="A415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" customHeight="1" spans="1:1">
       <c r="A416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" customHeight="1" spans="1:1">
       <c r="A417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" customHeight="1" spans="1:1">
       <c r="A418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" customHeight="1" spans="1:1">
       <c r="A419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" customHeight="1" spans="1:1">
       <c r="A420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" customHeight="1" spans="1:1">
       <c r="A421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" customHeight="1" spans="1:1">
       <c r="A422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" customHeight="1" spans="1:1">
       <c r="A423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" customHeight="1" spans="1:1">
       <c r="A424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" customHeight="1" spans="1:1">
       <c r="A425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" customHeight="1" spans="1:1">
       <c r="A426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" customHeight="1" spans="1:1">
       <c r="A427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" customHeight="1" spans="1:1">
       <c r="A428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" customHeight="1" spans="1:1">
       <c r="A429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" customHeight="1" spans="1:1">
       <c r="A430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" customHeight="1" spans="1:1">
       <c r="A431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" customHeight="1" spans="1:1">
       <c r="A432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" customHeight="1" spans="1:1">
       <c r="A433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" customHeight="1" spans="1:1">
       <c r="A434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" customHeight="1" spans="1:1">
       <c r="A435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" customHeight="1" spans="1:1">
       <c r="A436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" customHeight="1" spans="1:1">
       <c r="A437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" customHeight="1" spans="1:1">
       <c r="A438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" customHeight="1" spans="1:1">
       <c r="A439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" customHeight="1" spans="1:1">
       <c r="A440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" customHeight="1" spans="1:1">
       <c r="A441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" customHeight="1" spans="1:1">
       <c r="A442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" customHeight="1" spans="1:1">
       <c r="A443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" customHeight="1" spans="1:1">
       <c r="A444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" customHeight="1" spans="1:1">
       <c r="A445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" customHeight="1" spans="1:1">
       <c r="A446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" customHeight="1" spans="1:1">
       <c r="A447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" customHeight="1" spans="1:1">
       <c r="A448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" customHeight="1" spans="1:1">
       <c r="A449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" customHeight="1" spans="1:1">
       <c r="A450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" customHeight="1" spans="1:1">
       <c r="A451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" customHeight="1" spans="1:1">
       <c r="A452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" customHeight="1" spans="1:1">
       <c r="A453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" customHeight="1" spans="1:1">
       <c r="A454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" customHeight="1" spans="1:1">
       <c r="A455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" customHeight="1" spans="1:1">
       <c r="A456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" customHeight="1" spans="1:1">
       <c r="A457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" customHeight="1" spans="1:1">
       <c r="A458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" customHeight="1" spans="1:1">
       <c r="A459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" customHeight="1" spans="1:1">
       <c r="A460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" customHeight="1" spans="1:1">
       <c r="A461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" customHeight="1" spans="1:1">
       <c r="A462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" customHeight="1" spans="1:1">
       <c r="A463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" customHeight="1" spans="1:1">
       <c r="A464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" customHeight="1" spans="1:1">
       <c r="A465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" customHeight="1" spans="1:1">
       <c r="A466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" customHeight="1" spans="1:1">
       <c r="A467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" customHeight="1" spans="1:1">
       <c r="A468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" customHeight="1" spans="1:1">
       <c r="A469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" customHeight="1" spans="1:1">
       <c r="A470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" customHeight="1" spans="1:1">
       <c r="A471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" customHeight="1" spans="1:1">
       <c r="A472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" customHeight="1" spans="1:1">
       <c r="A473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" customHeight="1" spans="1:1">
       <c r="A474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" customHeight="1" spans="1:1">
       <c r="A475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" customHeight="1" spans="1:1">
       <c r="A476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" customHeight="1" spans="1:1">
       <c r="A477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" customHeight="1" spans="1:1">
       <c r="A478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" customHeight="1" spans="1:1">
       <c r="A479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" customHeight="1" spans="1:1">
       <c r="A480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" customHeight="1" spans="1:1">
       <c r="A481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" customHeight="1" spans="1:1">
       <c r="A482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" customHeight="1" spans="1:1">
       <c r="A483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" customHeight="1" spans="1:1">
       <c r="A484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" customHeight="1" spans="1:1">
       <c r="A485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" customHeight="1" spans="1:1">
       <c r="A486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" customHeight="1" spans="1:1">
       <c r="A487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" customHeight="1" spans="1:1">
       <c r="A488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" customHeight="1" spans="1:1">
       <c r="A489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" customHeight="1" spans="1:1">
       <c r="A490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" customHeight="1" spans="1:1">
       <c r="A491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" customHeight="1" spans="1:1">
       <c r="A492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" customHeight="1" spans="1:1">
       <c r="A493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" customHeight="1" spans="1:1">
       <c r="A494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" customHeight="1" spans="1:1">
       <c r="A495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" customHeight="1" spans="1:1">
       <c r="A496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" customHeight="1" spans="1:1">
       <c r="A497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" customHeight="1" spans="1:1">
       <c r="A498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" customHeight="1" spans="1:1">
       <c r="A499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" customHeight="1" spans="1:1">
       <c r="A500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" customHeight="1" spans="1:1">
       <c r="A501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" customHeight="1" spans="1:1">
       <c r="A502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" customHeight="1" spans="1:1">
       <c r="A503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" customHeight="1" spans="1:1">
       <c r="A504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" customHeight="1" spans="1:1">
       <c r="A505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" customHeight="1" spans="1:1">
       <c r="A506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" customHeight="1" spans="1:1">
       <c r="A507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" customHeight="1" spans="1:1">
       <c r="A508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" customHeight="1" spans="1:1">
       <c r="A509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" customHeight="1" spans="1:1">
       <c r="A510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" customHeight="1" spans="1:1">
       <c r="A511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" customHeight="1" spans="1:1">
       <c r="A512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" customHeight="1" spans="1:1">
       <c r="A513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" customHeight="1" spans="1:1">
       <c r="A514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" customHeight="1" spans="1:1">
       <c r="A515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" customHeight="1" spans="1:1">
       <c r="A516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" customHeight="1" spans="1:1">
       <c r="A517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" customHeight="1" spans="1:1">
       <c r="A518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" customHeight="1" spans="1:1">
       <c r="A519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" customHeight="1" spans="1:1">
       <c r="A520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" customHeight="1" spans="1:1">
       <c r="A521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" customHeight="1" spans="1:1">
       <c r="A522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" customHeight="1" spans="1:1">
       <c r="A523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" customHeight="1" spans="1:1">
       <c r="A524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" customHeight="1" spans="1:1">
       <c r="A525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" customHeight="1" spans="1:1">
       <c r="A526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" customHeight="1" spans="1:1">
       <c r="A527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" customHeight="1" spans="1:1">
       <c r="A528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" customHeight="1" spans="1:1">
       <c r="A529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" customHeight="1" spans="1:1">
       <c r="A530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" customHeight="1" spans="1:1">
       <c r="A531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" customHeight="1" spans="1:1">
       <c r="A532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" customHeight="1" spans="1:1">
       <c r="A533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" customHeight="1" spans="1:1">
       <c r="A534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" customHeight="1" spans="1:1">
       <c r="A535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" customHeight="1" spans="1:1">
       <c r="A536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" customHeight="1" spans="1:1">
       <c r="A537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" customHeight="1" spans="1:1">
       <c r="A538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" customHeight="1" spans="1:1">
       <c r="A539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" customHeight="1" spans="1:1">
       <c r="A540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" customHeight="1" spans="1:1">
       <c r="A541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" customHeight="1" spans="1:1">
       <c r="A542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" customHeight="1" spans="1:1">
       <c r="A543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" customHeight="1" spans="1:1">
       <c r="A544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" customHeight="1" spans="1:1">
       <c r="A545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" customHeight="1" spans="1:1">
       <c r="A546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" customHeight="1" spans="1:1">
       <c r="A547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" customHeight="1" spans="1:1">
       <c r="A548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" customHeight="1" spans="1:1">
       <c r="A549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" customHeight="1" spans="1:1">
       <c r="A550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" customHeight="1" spans="1:1">
       <c r="A551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" customHeight="1" spans="1:1">
       <c r="A552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" customHeight="1" spans="1:1">
       <c r="A553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" customHeight="1" spans="1:1">
       <c r="A554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" customHeight="1" spans="1:1">
       <c r="A555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" customHeight="1" spans="1:1">
       <c r="A556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" customHeight="1" spans="1:1">
       <c r="A557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" customHeight="1" spans="1:1">
       <c r="A558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" customHeight="1" spans="1:1">
       <c r="A559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" customHeight="1" spans="1:1">
       <c r="A560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" customHeight="1" spans="1:1">
       <c r="A561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" customHeight="1" spans="1:1">
       <c r="A562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" customHeight="1" spans="1:1">
       <c r="A563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" customHeight="1" spans="1:1">
       <c r="A564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" customHeight="1" spans="1:1">
       <c r="A565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" customHeight="1" spans="1:1">
       <c r="A566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" customHeight="1" spans="1:1">
       <c r="A567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" customHeight="1" spans="1:1">
       <c r="A568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" customHeight="1" spans="1:1">
       <c r="A569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" customHeight="1" spans="1:1">
       <c r="A570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" customHeight="1" spans="1:1">
       <c r="A571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" customHeight="1" spans="1:1">
       <c r="A572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" customHeight="1" spans="1:1">
       <c r="A573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" customHeight="1" spans="1:1">
       <c r="A574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" customHeight="1" spans="1:1">
       <c r="A575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" customHeight="1" spans="1:1">
       <c r="A576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" customHeight="1" spans="1:1">
       <c r="A577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" customHeight="1" spans="1:1">
       <c r="A578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" customHeight="1" spans="1:1">
       <c r="A579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" customHeight="1" spans="1:1">
       <c r="A580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" customHeight="1" spans="1:1">
       <c r="A581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" customHeight="1" spans="1:1">
       <c r="A582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" customHeight="1" spans="1:1">
       <c r="A583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" customHeight="1" spans="1:1">
       <c r="A584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" customHeight="1" spans="1:1">
       <c r="A585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" customHeight="1" spans="1:1">
       <c r="A586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" customHeight="1" spans="1:1">
       <c r="A587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" customHeight="1" spans="1:1">
       <c r="A588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" customHeight="1" spans="1:1">
       <c r="A589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" customHeight="1" spans="1:1">
       <c r="A590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" customHeight="1" spans="1:1">
       <c r="A591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" customHeight="1" spans="1:1">
       <c r="A592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" customHeight="1" spans="1:1">
       <c r="A593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" customHeight="1" spans="1:1">
       <c r="A594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" customHeight="1" spans="1:1">
       <c r="A595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" customHeight="1" spans="1:1">
       <c r="A596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" customHeight="1" spans="1:1">
       <c r="A597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" customHeight="1" spans="1:1">
       <c r="A598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" customHeight="1" spans="1:1">
       <c r="A599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" customHeight="1" spans="1:1">
       <c r="A600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" customHeight="1" spans="1:1">
       <c r="A601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" customHeight="1" spans="1:1">
       <c r="A602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" customHeight="1" spans="1:1">
       <c r="A603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" customHeight="1" spans="1:1">
       <c r="A604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" customHeight="1" spans="1:1">
       <c r="A605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" customHeight="1" spans="1:1">
       <c r="A606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" customHeight="1" spans="1:1">
       <c r="A607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" customHeight="1" spans="1:1">
       <c r="A608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" customHeight="1" spans="1:1">
       <c r="A609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" customHeight="1" spans="1:1">
       <c r="A610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" customHeight="1" spans="1:1">
       <c r="A611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" customHeight="1" spans="1:1">
       <c r="A612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" customHeight="1" spans="1:1">
       <c r="A613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" customHeight="1" spans="1:1">
       <c r="A614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" customHeight="1" spans="1:1">
       <c r="A615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" customHeight="1" spans="1:1">
       <c r="A616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" customHeight="1" spans="1:1">
       <c r="A617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" customHeight="1" spans="1:1">
       <c r="A618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" customHeight="1" spans="1:1">
       <c r="A619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" customHeight="1" spans="1:1">
       <c r="A620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" customHeight="1" spans="1:1">
       <c r="A621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" customHeight="1" spans="1:1">
       <c r="A622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" customHeight="1" spans="1:1">
       <c r="A623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" customHeight="1" spans="1:1">
       <c r="A624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" customHeight="1" spans="1:1">
       <c r="A625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" customHeight="1" spans="1:1">
       <c r="A626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" customHeight="1" spans="1:1">
       <c r="A627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" customHeight="1" spans="1:1">
       <c r="A628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" customHeight="1" spans="1:1">
       <c r="A629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" customHeight="1" spans="1:1">
       <c r="A630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" customHeight="1" spans="1:1">
       <c r="A631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" customHeight="1" spans="1:1">
       <c r="A632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" customHeight="1" spans="1:1">
       <c r="A633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" customHeight="1" spans="1:1">
       <c r="A634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" customHeight="1" spans="1:1">
       <c r="A635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" customHeight="1" spans="1:1">
       <c r="A636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" customHeight="1" spans="1:1">
       <c r="A637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" customHeight="1" spans="1:1">
       <c r="A638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" customHeight="1" spans="1:1">
       <c r="A639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" customHeight="1" spans="1:1">
       <c r="A640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" customHeight="1" spans="1:1">
       <c r="A641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" customHeight="1" spans="1:1">
       <c r="A642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" customHeight="1" spans="1:1">
       <c r="A643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" customHeight="1" spans="1:1">
       <c r="A644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" customHeight="1" spans="1:1">
       <c r="A645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" customHeight="1" spans="1:1">
       <c r="A646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" customHeight="1" spans="1:1">
       <c r="A647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" customHeight="1" spans="1:1">
       <c r="A648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" customHeight="1" spans="1:1">
       <c r="A649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" customHeight="1" spans="1:1">
       <c r="A650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" customHeight="1" spans="1:1">
       <c r="A651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" customHeight="1" spans="1:1">
       <c r="A652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" customHeight="1" spans="1:1">
       <c r="A653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" customHeight="1" spans="1:1">
       <c r="A654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" customHeight="1" spans="1:1">
       <c r="A655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" customHeight="1" spans="1:1">
       <c r="A656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" customHeight="1" spans="1:1">
       <c r="A657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" customHeight="1" spans="1:1">
       <c r="A658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" customHeight="1" spans="1:1">
       <c r="A659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" customHeight="1" spans="1:1">
       <c r="A660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" customHeight="1" spans="1:1">
       <c r="A661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" customHeight="1" spans="1:1">
       <c r="A662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" customHeight="1" spans="1:1">
       <c r="A663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" customHeight="1" spans="1:1">
       <c r="A664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" customHeight="1" spans="1:1">
       <c r="A665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" customHeight="1" spans="1:1">
       <c r="A666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" customHeight="1" spans="1:1">
       <c r="A667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" customHeight="1" spans="1:1">
       <c r="A668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" customHeight="1" spans="1:1">
       <c r="A669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" customHeight="1" spans="1:1">
       <c r="A670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" customHeight="1" spans="1:1">
       <c r="A671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" customHeight="1" spans="1:1">
       <c r="A672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" customHeight="1" spans="1:1">
       <c r="A673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" customHeight="1" spans="1:1">
       <c r="A674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" customHeight="1" spans="1:1">
       <c r="A675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" customHeight="1" spans="1:1">
       <c r="A676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" customHeight="1" spans="1:1">
       <c r="A677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" customHeight="1" spans="1:1">
       <c r="A678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" customHeight="1" spans="1:1">
       <c r="A679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" customHeight="1" spans="1:1">
       <c r="A680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" customHeight="1" spans="1:1">
       <c r="A681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" customHeight="1" spans="1:1">
       <c r="A682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" customHeight="1" spans="1:1">
       <c r="A683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" customHeight="1" spans="1:1">
       <c r="A684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" customHeight="1" spans="1:1">
       <c r="A685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" customHeight="1" spans="1:1">
       <c r="A686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" customHeight="1" spans="1:1">
       <c r="A687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" customHeight="1" spans="1:1">
       <c r="A688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" customHeight="1" spans="1:1">
       <c r="A689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" customHeight="1" spans="1:1">
       <c r="A690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" customHeight="1" spans="1:1">
       <c r="A691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" customHeight="1" spans="1:1">
       <c r="A692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" customHeight="1" spans="1:1">
       <c r="A693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" customHeight="1" spans="1:1">
       <c r="A694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" customHeight="1" spans="1:1">
       <c r="A695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" customHeight="1" spans="1:1">
       <c r="A696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" customHeight="1" spans="1:1">
       <c r="A697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" customHeight="1" spans="1:1">
       <c r="A698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" customHeight="1" spans="1:1">
       <c r="A699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" customHeight="1" spans="1:1">
       <c r="A700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" customHeight="1" spans="1:1">
       <c r="A701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" customHeight="1" spans="1:1">
       <c r="A702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" customHeight="1" spans="1:1">
       <c r="A703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" customHeight="1" spans="1:1">
       <c r="A704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" customHeight="1" spans="1:1">
       <c r="A705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" customHeight="1" spans="1:1">
       <c r="A706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" customHeight="1" spans="1:1">
       <c r="A707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" customHeight="1" spans="1:1">
       <c r="A708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" customHeight="1" spans="1:1">
       <c r="A709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" customHeight="1" spans="1:1">
       <c r="A710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" customHeight="1" spans="1:1">
       <c r="A711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" customHeight="1" spans="1:1">
       <c r="A712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" customHeight="1" spans="1:1">
       <c r="A713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" customHeight="1" spans="1:1">
       <c r="A714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" customHeight="1" spans="1:1">
       <c r="A715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" customHeight="1" spans="1:1">
       <c r="A716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" customHeight="1" spans="1:1">
       <c r="A717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" customHeight="1" spans="1:1">
       <c r="A718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" customHeight="1" spans="1:1">
       <c r="A719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" customHeight="1" spans="1:1">
       <c r="A720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" customHeight="1" spans="1:1">
       <c r="A721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" customHeight="1" spans="1:1">
       <c r="A722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" customHeight="1" spans="1:1">
       <c r="A723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" customHeight="1" spans="1:1">
       <c r="A724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" customHeight="1" spans="1:1">
       <c r="A725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" customHeight="1" spans="1:1">
       <c r="A726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" customHeight="1" spans="1:1">
       <c r="A727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" customHeight="1" spans="1:1">
       <c r="A728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" customHeight="1" spans="1:1">
       <c r="A729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" customHeight="1" spans="1:1">
       <c r="A730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" customHeight="1" spans="1:1">
       <c r="A731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" customHeight="1" spans="1:1">
       <c r="A732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" customHeight="1" spans="1:1">
       <c r="A733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" customHeight="1" spans="1:1">
       <c r="A734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" customHeight="1" spans="1:1">
       <c r="A735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" customHeight="1" spans="1:1">
       <c r="A736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" customHeight="1" spans="1:1">
       <c r="A737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" customHeight="1" spans="1:1">
       <c r="A738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" customHeight="1" spans="1:1">
       <c r="A739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" customHeight="1" spans="1:1">
       <c r="A740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" customHeight="1" spans="1:1">
       <c r="A741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" customHeight="1" spans="1:1">
       <c r="A742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" customHeight="1" spans="1:1">
       <c r="A743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" customHeight="1" spans="1:1">
       <c r="A744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" customHeight="1" spans="1:1">
       <c r="A745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" customHeight="1" spans="1:1">
       <c r="A746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" customHeight="1" spans="1:1">
       <c r="A747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" customHeight="1" spans="1:1">
       <c r="A748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" customHeight="1" spans="1:1">
       <c r="A749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" customHeight="1" spans="1:1">
       <c r="A750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" customHeight="1" spans="1:1">
       <c r="A751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" customHeight="1" spans="1:1">
       <c r="A752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" customHeight="1" spans="1:1">
       <c r="A753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" customHeight="1" spans="1:1">
       <c r="A754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" customHeight="1" spans="1:1">
       <c r="A755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" customHeight="1" spans="1:1">
       <c r="A756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" customHeight="1" spans="1:1">
       <c r="A757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" customHeight="1" spans="1:1">
       <c r="A758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" customHeight="1" spans="1:1">
       <c r="A759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" customHeight="1" spans="1:1">
       <c r="A760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" customHeight="1" spans="1:1">
       <c r="A761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" customHeight="1" spans="1:1">
       <c r="A762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" customHeight="1" spans="1:1">
       <c r="A763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" customHeight="1" spans="1:1">
       <c r="A764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" customHeight="1" spans="1:1">
       <c r="A765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" customHeight="1" spans="1:1">
       <c r="A766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" customHeight="1" spans="1:1">
       <c r="A767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" customHeight="1" spans="1:1">
       <c r="A768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" customHeight="1" spans="1:1">
       <c r="A769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" customHeight="1" spans="1:1">
       <c r="A770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" customHeight="1" spans="1:1">
       <c r="A771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" customHeight="1" spans="1:1">
       <c r="A772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" customHeight="1" spans="1:1">
       <c r="A773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" customHeight="1" spans="1:1">
       <c r="A774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" customHeight="1" spans="1:1">
       <c r="A775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" customHeight="1" spans="1:1">
       <c r="A776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" customHeight="1" spans="1:1">
       <c r="A777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" customHeight="1" spans="1:1">
       <c r="A778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" customHeight="1" spans="1:1">
       <c r="A779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" customHeight="1" spans="1:1">
       <c r="A780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" customHeight="1" spans="1:1">
       <c r="A781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" customHeight="1" spans="1:1">
       <c r="A782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" customHeight="1" spans="1:1">
       <c r="A783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" customHeight="1" spans="1:1">
       <c r="A784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" customHeight="1" spans="1:1">
       <c r="A785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" customHeight="1" spans="1:1">
       <c r="A786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" customHeight="1" spans="1:1">
       <c r="A787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" customHeight="1" spans="1:1">
       <c r="A788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" customHeight="1" spans="1:1">
       <c r="A789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" customHeight="1" spans="1:1">
       <c r="A790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" customHeight="1" spans="1:1">
       <c r="A791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" customHeight="1" spans="1:1">
       <c r="A792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" customHeight="1" spans="1:1">
       <c r="A793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" customHeight="1" spans="1:1">
       <c r="A794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" customHeight="1" spans="1:1">
       <c r="A795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" customHeight="1" spans="1:1">
       <c r="A796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" customHeight="1" spans="1:1">
       <c r="A797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" customHeight="1" spans="1:1">
       <c r="A798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" customHeight="1" spans="1:1">
       <c r="A799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" customHeight="1" spans="1:1">
       <c r="A800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" customHeight="1" spans="1:1">
       <c r="A801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" customHeight="1" spans="1:1">
       <c r="A802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" customHeight="1" spans="1:1">
       <c r="A803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" customHeight="1" spans="1:1">
       <c r="A804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" customHeight="1" spans="1:1">
       <c r="A805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" customHeight="1" spans="1:1">
       <c r="A806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" customHeight="1" spans="1:1">
       <c r="A807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" customHeight="1" spans="1:1">
       <c r="A808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" customHeight="1" spans="1:1">
       <c r="A809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" customHeight="1" spans="1:1">
       <c r="A810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" customHeight="1" spans="1:1">
       <c r="A811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" customHeight="1" spans="1:1">
       <c r="A812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" customHeight="1" spans="1:1">
       <c r="A813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" customHeight="1" spans="1:1">
       <c r="A814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" customHeight="1" spans="1:1">
       <c r="A815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" customHeight="1" spans="1:1">
       <c r="A816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" customHeight="1" spans="1:1">
       <c r="A817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" customHeight="1" spans="1:1">
       <c r="A818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" customHeight="1" spans="1:1">
       <c r="A819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" customHeight="1" spans="1:1">
       <c r="A820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" customHeight="1" spans="1:1">
       <c r="A821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" customHeight="1" spans="1:1">
       <c r="A822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" customHeight="1" spans="1:1">
       <c r="A823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" customHeight="1" spans="1:1">
       <c r="A824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" customHeight="1" spans="1:1">
       <c r="A825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" customHeight="1" spans="1:1">
       <c r="A826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" customHeight="1" spans="1:1">
       <c r="A827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" customHeight="1" spans="1:1">
       <c r="A828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" customHeight="1" spans="1:1">
       <c r="A829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" customHeight="1" spans="1:1">
       <c r="A830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" customHeight="1" spans="1:1">
       <c r="A831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" customHeight="1" spans="1:1">
       <c r="A832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" customHeight="1" spans="1:1">
       <c r="A833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" customHeight="1" spans="1:1">
       <c r="A834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" customHeight="1" spans="1:1">
       <c r="A835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" customHeight="1" spans="1:1">
       <c r="A836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" customHeight="1" spans="1:1">
       <c r="A837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" customHeight="1" spans="1:1">
       <c r="A838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" customHeight="1" spans="1:1">
       <c r="A839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" customHeight="1" spans="1:1">
       <c r="A840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" customHeight="1" spans="1:1">
       <c r="A841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" customHeight="1" spans="1:1">
       <c r="A842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" customHeight="1" spans="1:1">
       <c r="A843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" customHeight="1" spans="1:1">
       <c r="A844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" customHeight="1" spans="1:1">
       <c r="A845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" customHeight="1" spans="1:1">
       <c r="A846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" customHeight="1" spans="1:1">
       <c r="A847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" customHeight="1" spans="1:1">
       <c r="A848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" customHeight="1" spans="1:1">
       <c r="A849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" customHeight="1" spans="1:1">
       <c r="A850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" customHeight="1" spans="1:1">
       <c r="A851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" customHeight="1" spans="1:1">
       <c r="A852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" customHeight="1" spans="1:1">
       <c r="A853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" customHeight="1" spans="1:1">
       <c r="A854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" customHeight="1" spans="1:1">
       <c r="A855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" customHeight="1" spans="1:1">
       <c r="A856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" customHeight="1" spans="1:1">
       <c r="A857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" customHeight="1" spans="1:1">
       <c r="A858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" customHeight="1" spans="1:1">
       <c r="A859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" customHeight="1" spans="1:1">
       <c r="A860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" customHeight="1" spans="1:1">
       <c r="A861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" customHeight="1" spans="1:1">
       <c r="A862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" customHeight="1" spans="1:1">
       <c r="A863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" customHeight="1" spans="1:1">
       <c r="A864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" customHeight="1" spans="1:1">
       <c r="A865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" customHeight="1" spans="1:1">
       <c r="A866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" customHeight="1" spans="1:1">
       <c r="A867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" customHeight="1" spans="1:1">
       <c r="A868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" customHeight="1" spans="1:1">
       <c r="A869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" customHeight="1" spans="1:1">
       <c r="A870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" customHeight="1" spans="1:1">
       <c r="A871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" customHeight="1" spans="1:1">
       <c r="A872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" customHeight="1" spans="1:1">
       <c r="A873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" customHeight="1" spans="1:1">
       <c r="A874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" customHeight="1" spans="1:1">
       <c r="A875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" customHeight="1" spans="1:1">
       <c r="A876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" customHeight="1" spans="1:1">
       <c r="A877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" customHeight="1" spans="1:1">
       <c r="A878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" customHeight="1" spans="1:1">
       <c r="A879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" customHeight="1" spans="1:1">
       <c r="A880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" customHeight="1" spans="1:1">
       <c r="A881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" customHeight="1" spans="1:1">
       <c r="A882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" customHeight="1" spans="1:1">
       <c r="A883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" customHeight="1" spans="1:1">
       <c r="A884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" customHeight="1" spans="1:1">
       <c r="A885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" customHeight="1" spans="1:1">
       <c r="A886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" customHeight="1" spans="1:1">
       <c r="A887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" customHeight="1" spans="1:1">
       <c r="A888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" customHeight="1" spans="1:1">
       <c r="A889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" customHeight="1" spans="1:1">
       <c r="A890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" customHeight="1" spans="1:1">
       <c r="A891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" customHeight="1" spans="1:1">
       <c r="A892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" customHeight="1" spans="1:1">
       <c r="A893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" customHeight="1" spans="1:1">
       <c r="A894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" customHeight="1" spans="1:1">
       <c r="A895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" customHeight="1" spans="1:1">
       <c r="A896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" customHeight="1" spans="1:1">
       <c r="A897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" customHeight="1" spans="1:1">
       <c r="A898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" customHeight="1" spans="1:1">
       <c r="A899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" customHeight="1" spans="1:1">
       <c r="A900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" customHeight="1" spans="1:1">
       <c r="A901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" customHeight="1" spans="1:1">
       <c r="A902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" customHeight="1" spans="1:1">
       <c r="A903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" customHeight="1" spans="1:1">
       <c r="A904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" customHeight="1" spans="1:1">
       <c r="A905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" customHeight="1" spans="1:1">
       <c r="A906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" customHeight="1" spans="1:1">
       <c r="A907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" customHeight="1" spans="1:1">
       <c r="A908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" customHeight="1" spans="1:1">
       <c r="A909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" customHeight="1" spans="1:1">
       <c r="A910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" customHeight="1" spans="1:1">
       <c r="A911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" customHeight="1" spans="1:1">
       <c r="A912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" customHeight="1" spans="1:1">
       <c r="A913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" customHeight="1" spans="1:1">
       <c r="A914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" customHeight="1" spans="1:1">
       <c r="A915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" customHeight="1" spans="1:1">
       <c r="A916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" customHeight="1" spans="1:1">
       <c r="A917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" customHeight="1" spans="1:1">
       <c r="A918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" customHeight="1" spans="1:1">
       <c r="A919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" customHeight="1" spans="1:1">
       <c r="A920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" customHeight="1" spans="1:1">
       <c r="A921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" customHeight="1" spans="1:1">
       <c r="A922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" customHeight="1" spans="1:1">
       <c r="A923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" customHeight="1" spans="1:1">
       <c r="A924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" customHeight="1" spans="1:1">
       <c r="A925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" customHeight="1" spans="1:1">
       <c r="A926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" customHeight="1" spans="1:1">
       <c r="A927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" customHeight="1" spans="1:1">
       <c r="A928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" customHeight="1" spans="1:1">
       <c r="A929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" customHeight="1" spans="1:1">
       <c r="A930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" customHeight="1" spans="1:1">
       <c r="A931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" customHeight="1" spans="1:1">
       <c r="A932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" customHeight="1" spans="1:1">
       <c r="A933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" customHeight="1" spans="1:1">
       <c r="A934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" customHeight="1" spans="1:1">
       <c r="A935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" customHeight="1" spans="1:1">
       <c r="A936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" customHeight="1" spans="1:1">
       <c r="A937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" customHeight="1" spans="1:1">
       <c r="A938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" customHeight="1" spans="1:1">
       <c r="A939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" customHeight="1" spans="1:1">
       <c r="A940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" customHeight="1" spans="1:1">
       <c r="A941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" customHeight="1" spans="1:1">
       <c r="A942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" customHeight="1" spans="1:1">
       <c r="A943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" customHeight="1" spans="1:1">
       <c r="A944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" customHeight="1" spans="1:1">
       <c r="A945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" customHeight="1" spans="1:1">
       <c r="A946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" customHeight="1" spans="1:1">
       <c r="A947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" customHeight="1" spans="1:1">
       <c r="A948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" customHeight="1" spans="1:1">
       <c r="A949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" customHeight="1" spans="1:1">
       <c r="A950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" customHeight="1" spans="1:1">
       <c r="A951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" customHeight="1" spans="1:1">
       <c r="A952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" customHeight="1" spans="1:1">
       <c r="A953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" customHeight="1" spans="1:1">
       <c r="A954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" customHeight="1" spans="1:1">
       <c r="A955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" customHeight="1" spans="1:1">
       <c r="A956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" customHeight="1" spans="1:1">
       <c r="A957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" customHeight="1" spans="1:1">
       <c r="A958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" customHeight="1" spans="1:1">
       <c r="A959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" customHeight="1" spans="1:1">
       <c r="A960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" customHeight="1" spans="1:1">
       <c r="A961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" customHeight="1" spans="1:1">
       <c r="A962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" customHeight="1" spans="1:1">
       <c r="A963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" customHeight="1" spans="1:1">
       <c r="A964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" customHeight="1" spans="1:1">
       <c r="A965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" customHeight="1" spans="1:1">
       <c r="A966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" customHeight="1" spans="1:1">
       <c r="A967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" customHeight="1" spans="1:1">
       <c r="A968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" customHeight="1" spans="1:1">
       <c r="A969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" customHeight="1" spans="1:1">
       <c r="A970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" customHeight="1" spans="1:1">
       <c r="A971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" customHeight="1" spans="1:1">
       <c r="A972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" customHeight="1" spans="1:1">
       <c r="A973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" customHeight="1" spans="1:1">
       <c r="A974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" customHeight="1" spans="1:1">
       <c r="A975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" customHeight="1" spans="1:1">
       <c r="A976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" customHeight="1" spans="1:1">
       <c r="A977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" customHeight="1" spans="1:1">
       <c r="A978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" customHeight="1" spans="1:1">
       <c r="A979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" customHeight="1" spans="1:1">
       <c r="A980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" customHeight="1" spans="1:1">
       <c r="A981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" customHeight="1" spans="1:1">
       <c r="A982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" customHeight="1" spans="1:1">
       <c r="A983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" customHeight="1" spans="1:1">
       <c r="A984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" customHeight="1" spans="1:1">
       <c r="A985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" customHeight="1" spans="1:1">
       <c r="A986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" customHeight="1" spans="1:1">
       <c r="A987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" customHeight="1" spans="1:1">
       <c r="A988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" customHeight="1" spans="1:1">
       <c r="A989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" customHeight="1" spans="1:1">
       <c r="A990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" customHeight="1" spans="1:1">
       <c r="A991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" customHeight="1" spans="1:1">
       <c r="A992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" customHeight="1" spans="1:1">
       <c r="A993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" customHeight="1" spans="1:1">
       <c r="A994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" customHeight="1" spans="1:1">
       <c r="A995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" customHeight="1" spans="1:1">
       <c r="A996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" customHeight="1" spans="1:1">
       <c r="A997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" customHeight="1" spans="1:1">
       <c r="A998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" customHeight="1" spans="1:1">
       <c r="A999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" customHeight="1" spans="1:1">
       <c r="A1000" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>